--- a/dados_convertidos.xlsx
+++ b/dados_convertidos.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -51,15 +51,45 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -444,249 +474,92 @@
           <t>Todas permanentes e acidentais dos pavimentos</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Todas permanentes e acidentais dos pavimentos</t>
-        </is>
-      </c>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Empuxo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Empuxo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Empuxo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Empuxo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Empuxo</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Vento (1) 78°</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (1) 78°</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (1) 78°</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (1) 78°</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (1) 78°</t>
-        </is>
-      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="2" t="n"/>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Vento (2) 258°</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (2) 258°</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (2) 258°</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (2) 258°</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (2) 258°</t>
-        </is>
-      </c>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="2" t="n"/>
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Vento (3) 348°</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (3) 348°</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (3) 348°</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (3) 348°</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (3) 348°</t>
-        </is>
-      </c>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="2" t="n"/>
       <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Vento (4) 168°</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (4) 168°</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (4) 168°</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (4) 168°</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (4) 168°</t>
-        </is>
-      </c>
+      <c r="Y1" s="3" t="n"/>
+      <c r="Z1" s="3" t="n"/>
+      <c r="AA1" s="3" t="n"/>
+      <c r="AB1" s="2" t="n"/>
       <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Vento (5) 33°</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (5) 33°</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (5) 33°</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (5) 33°</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (5) 33°</t>
-        </is>
-      </c>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+      <c r="AG1" s="2" t="n"/>
       <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Vento (6) 123°</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (6) 123°</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (6) 123°</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (6) 123°</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (6) 123°</t>
-        </is>
-      </c>
+      <c r="AI1" s="3" t="n"/>
+      <c r="AJ1" s="3" t="n"/>
+      <c r="AK1" s="3" t="n"/>
+      <c r="AL1" s="2" t="n"/>
       <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Vento (7) 213°</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (7) 213°</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (7) 213°</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (7) 213°</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (7) 213°</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (7) 213°</t>
-        </is>
-      </c>
+      <c r="AN1" s="3" t="n"/>
+      <c r="AO1" s="3" t="n"/>
+      <c r="AP1" s="3" t="n"/>
+      <c r="AQ1" s="3" t="n"/>
+      <c r="AR1" s="2" t="n"/>
       <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Vento (8) 303°</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (8) 303°</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (8) 303°</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (8) 303°</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (8) 303°</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Vento (8) 303°</t>
-        </is>
-      </c>
+      <c r="AT1" s="3" t="n"/>
+      <c r="AU1" s="3" t="n"/>
+      <c r="AV1" s="3" t="n"/>
+      <c r="AW1" s="3" t="n"/>
+      <c r="AX1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Mx</t>
@@ -32938,6 +32811,18 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>